--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C7B2AD-D83F-44AB-89A2-F492883022F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BAAD2E-CA99-4755-A848-1720E993D733}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="87">
   <si>
     <t>Usuario</t>
   </si>
@@ -260,9 +252,6 @@
     <t>Responsabilidad</t>
   </si>
   <si>
-    <t>04104012736</t>
-  </si>
-  <si>
     <t>04104012737</t>
   </si>
   <si>
@@ -288,6 +277,15 @@
   </si>
   <si>
     <t>12:15</t>
+  </si>
+  <si>
+    <t>04104015431</t>
+  </si>
+  <si>
+    <t>21/03/2022</t>
+  </si>
+  <si>
+    <t>12:00</t>
   </si>
 </sst>
 </file>
@@ -353,13 +351,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -644,7 +643,7 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +767,7 @@
       <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>45</v>
       </c>
       <c r="D2" t="s">
@@ -777,17 +776,17 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>75</v>
+      <c r="F2" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -879,16 +878,16 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
@@ -980,16 +979,16 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -1081,16 +1080,16 @@
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -1182,16 +1181,16 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -1283,16 +1282,16 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
@@ -1384,16 +1383,16 @@
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
@@ -1485,16 +1484,16 @@
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -1571,16 +1570,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BAAD2E-CA99-4755-A848-1720E993D733}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E5416C-E15E-4991-8BE7-B6D244881859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Apellido</t>
   </si>
   <si>
-    <t>ANIO</t>
-  </si>
-  <si>
     <t>Marca</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>12:00</t>
+  </si>
+  <si>
+    <t>Anio</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,11 +657,12 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -706,16 +707,16 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q1" t="s">
         <v>5</v>
       </c>
       <c r="R1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T1" t="s">
         <v>24</v>
@@ -724,40 +725,40 @@
         <v>25</v>
       </c>
       <c r="V1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" t="s">
-        <v>31</v>
-      </c>
       <c r="AB1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" t="s">
-        <v>39</v>
-      </c>
       <c r="AG1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -765,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -777,16 +778,16 @@
         <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -804,7 +805,7 @@
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2">
         <v>967</v>
@@ -819,34 +820,34 @@
         <v>25698369</v>
       </c>
       <c r="T2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s">
         <v>47</v>
-      </c>
-      <c r="U2" t="s">
-        <v>48</v>
       </c>
       <c r="V2">
         <v>2019</v>
       </c>
       <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" t="s">
-        <v>43</v>
-      </c>
       <c r="AA2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD2" t="s">
         <v>6</v>
@@ -866,10 +867,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -878,16 +879,16 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
@@ -905,7 +906,7 @@
         <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3">
         <v>967</v>
@@ -920,34 +921,34 @@
         <v>25698369</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V3">
         <v>2020</v>
       </c>
       <c r="W3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" t="s">
         <v>40</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" t="s">
-        <v>42</v>
-      </c>
       <c r="Z3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD3" t="s">
         <v>6</v>
@@ -967,10 +968,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -979,16 +980,16 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -1006,7 +1007,7 @@
         <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P4">
         <v>967</v>
@@ -1021,34 +1022,34 @@
         <v>25698369</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V4">
         <v>2021</v>
       </c>
       <c r="W4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" t="s">
         <v>40</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" t="s">
-        <v>42</v>
-      </c>
       <c r="Z4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD4" t="s">
         <v>6</v>
@@ -1068,10 +1069,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1080,16 +1081,16 @@
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -1107,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P5">
         <v>967</v>
@@ -1122,34 +1123,34 @@
         <v>25698369</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V5">
         <v>2022</v>
       </c>
       <c r="W5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" t="s">
         <v>40</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" t="s">
-        <v>42</v>
-      </c>
       <c r="Z5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD5" t="s">
         <v>6</v>
@@ -1169,10 +1170,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1181,16 +1182,16 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -1208,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P6">
         <v>967</v>
@@ -1223,34 +1224,34 @@
         <v>25698369</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V6">
         <v>2023</v>
       </c>
       <c r="W6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" t="s">
         <v>40</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>41</v>
       </c>
-      <c r="Y6" t="s">
-        <v>42</v>
-      </c>
       <c r="Z6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD6" t="s">
         <v>6</v>
@@ -1270,10 +1271,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1282,16 +1283,16 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
@@ -1309,7 +1310,7 @@
         <v>18</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7">
         <v>967</v>
@@ -1324,34 +1325,34 @@
         <v>25698369</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V7">
         <v>2024</v>
       </c>
       <c r="W7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" t="s">
         <v>40</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>41</v>
       </c>
-      <c r="Y7" t="s">
-        <v>42</v>
-      </c>
       <c r="Z7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD7" t="s">
         <v>6</v>
@@ -1371,10 +1372,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1383,16 +1384,16 @@
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
@@ -1410,7 +1411,7 @@
         <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8">
         <v>967</v>
@@ -1425,34 +1426,34 @@
         <v>25698369</v>
       </c>
       <c r="T8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" t="s">
         <v>47</v>
-      </c>
-      <c r="U8" t="s">
-        <v>48</v>
       </c>
       <c r="V8">
         <v>2025</v>
       </c>
       <c r="W8" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" t="s">
         <v>40</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>41</v>
       </c>
-      <c r="Y8" t="s">
-        <v>42</v>
-      </c>
       <c r="Z8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD8" t="s">
         <v>6</v>
@@ -1472,10 +1473,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1484,16 +1485,16 @@
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -1511,7 +1512,7 @@
         <v>18</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P9">
         <v>967</v>
@@ -1526,34 +1527,34 @@
         <v>25698369</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V9">
         <v>2026</v>
       </c>
       <c r="W9" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" t="s">
         <v>40</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>41</v>
       </c>
-      <c r="Y9" t="s">
-        <v>42</v>
-      </c>
       <c r="Z9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD9" t="s">
         <v>6</v>

--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E5416C-E15E-4991-8BE7-B6D244881859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F676F3-F647-489D-B64B-145D0035CBA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,16 +276,16 @@
     <t>12:15</t>
   </si>
   <si>
-    <t>04104015431</t>
-  </si>
-  <si>
-    <t>21/03/2022</t>
-  </si>
-  <si>
     <t>12:00</t>
   </si>
   <si>
     <t>Anio</t>
+  </si>
+  <si>
+    <t>19/03/2021</t>
+  </si>
+  <si>
+    <t>04104015645</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="V1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W1" t="s">
         <v>26</v>
@@ -778,16 +778,16 @@
         <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>

--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F676F3-F647-489D-B64B-145D0035CBA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25451568-BC28-4E04-AD01-6A9A5BF8534B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="90">
   <si>
     <t>Usuario</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Responsabilidad</t>
   </si>
   <si>
-    <t>04104012737</t>
-  </si>
-  <si>
     <t>04104012738</t>
   </si>
   <si>
@@ -282,10 +279,22 @@
     <t>Anio</t>
   </si>
   <si>
-    <t>19/03/2021</t>
+    <t>04104015957</t>
+  </si>
+  <si>
+    <t>05/04/2021</t>
+  </si>
+  <si>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
   <si>
     <t>04104015645</t>
+  </si>
+  <si>
+    <t>22/03/2021</t>
   </si>
 </sst>
 </file>
@@ -358,7 +367,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -642,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +734,7 @@
         <v>25</v>
       </c>
       <c r="V1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W1" t="s">
         <v>26</v>
@@ -766,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -777,8 +786,8 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>86</v>
+      <c r="F2" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
@@ -787,7 +796,7 @@
         <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -878,17 +887,17 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>74</v>
+      <c r="F3" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
@@ -980,16 +989,16 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -1081,16 +1090,16 @@
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -1182,16 +1191,16 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -1283,16 +1292,16 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
@@ -1384,16 +1393,16 @@
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
@@ -1485,16 +1494,16 @@
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>

--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25451568-BC28-4E04-AD01-6A9A5BF8534B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37043DAF-E594-4E23-9334-5FB4FA9880F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,22 +279,22 @@
     <t>Anio</t>
   </si>
   <si>
-    <t>04104015957</t>
-  </si>
-  <si>
-    <t>05/04/2021</t>
-  </si>
-  <si>
-    <t>i-preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://i-preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
-  </si>
-  <si>
     <t>04104015645</t>
   </si>
   <si>
     <t>22/03/2021</t>
+  </si>
+  <si>
+    <t>04104016408</t>
+  </si>
+  <si>
+    <t>30/04/2021</t>
+  </si>
+  <si>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -787,13 +787,13 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>82</v>
@@ -888,13 +888,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>81</v>
@@ -1587,8 +1587,9 @@
     <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{9382C0EF-D38A-4EE2-B93D-495E1004483D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37043DAF-E594-4E23-9334-5FB4FA9880F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500DD862-7E6D-4DFE-BEEB-A0D1B4E382DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,12 +279,6 @@
     <t>Anio</t>
   </si>
   <si>
-    <t>04104015645</t>
-  </si>
-  <si>
-    <t>22/03/2021</t>
-  </si>
-  <si>
     <t>04104016408</t>
   </si>
   <si>
@@ -295,6 +289,12 @@
   </si>
   <si>
     <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>20/05/2021</t>
+  </si>
+  <si>
+    <t>04104018336</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -787,13 +787,13 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>82</v>
@@ -888,13 +888,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>81</v>

--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500DD862-7E6D-4DFE-BEEB-A0D1B4E382DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD30979-712C-4141-A11F-795BD0DC7290}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,10 +291,10 @@
     <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t>20/05/2021</t>
-  </si>
-  <si>
     <t>04104018336</t>
+  </si>
+  <si>
+    <t>24/05/2021</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,13 +888,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>81</v>

--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD30979-712C-4141-A11F-795BD0DC7290}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776E878F-F11A-4C3C-8C6C-A970CA482164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="90">
   <si>
     <t>Usuario</t>
   </si>
@@ -249,12 +249,6 @@
     <t>Responsabilidad</t>
   </si>
   <si>
-    <t>04104012738</t>
-  </si>
-  <si>
-    <t>04104012739</t>
-  </si>
-  <si>
     <t xml:space="preserve">04104012761 </t>
   </si>
   <si>
@@ -291,10 +285,16 @@
     <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t>04104018336</t>
-  </si>
-  <si>
-    <t>24/05/2021</t>
+    <t>CLEAS</t>
+  </si>
+  <si>
+    <t>04104019009</t>
+  </si>
+  <si>
+    <t>20/09/2021</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -360,13 +360,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -649,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +668,7 @@
     <col min="27" max="27" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -734,7 +733,7 @@
         <v>25</v>
       </c>
       <c r="V1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W1" t="s">
         <v>26</v>
@@ -769,16 +768,19 @@
       <c r="AG1" t="s">
         <v>73</v>
       </c>
+      <c r="AH1" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -787,16 +789,16 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -870,8 +872,11 @@
       <c r="AG2" t="s">
         <v>6</v>
       </c>
+      <c r="AH2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -887,17 +892,17 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>88</v>
+      <c r="F3" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
@@ -971,8 +976,11 @@
       <c r="AG3" t="s">
         <v>6</v>
       </c>
+      <c r="AH3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -989,16 +997,16 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -1037,7 +1045,7 @@
         <v>58</v>
       </c>
       <c r="V4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="W4" t="s">
         <v>39</v>
@@ -1070,10 +1078,13 @@
         <v>1</v>
       </c>
       <c r="AG4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1090,16 +1101,16 @@
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -1138,7 +1149,7 @@
         <v>59</v>
       </c>
       <c r="V5">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="W5" t="s">
         <v>39</v>
@@ -1173,8 +1184,11 @@
       <c r="AG5" t="s">
         <v>6</v>
       </c>
+      <c r="AH5" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1191,16 +1205,16 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -1239,7 +1253,7 @@
         <v>60</v>
       </c>
       <c r="V6">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="W6" t="s">
         <v>39</v>
@@ -1274,8 +1288,11 @@
       <c r="AG6" t="s">
         <v>6</v>
       </c>
+      <c r="AH6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1292,16 +1309,16 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
@@ -1340,7 +1357,7 @@
         <v>61</v>
       </c>
       <c r="V7">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="W7" t="s">
         <v>39</v>
@@ -1375,8 +1392,11 @@
       <c r="AG7" t="s">
         <v>6</v>
       </c>
+      <c r="AH7" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1393,16 +1413,16 @@
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
@@ -1441,7 +1461,7 @@
         <v>47</v>
       </c>
       <c r="V8">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="W8" t="s">
         <v>39</v>
@@ -1476,8 +1496,11 @@
       <c r="AG8" t="s">
         <v>6</v>
       </c>
+      <c r="AH8" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1494,16 +1517,16 @@
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -1542,7 +1565,7 @@
         <v>57</v>
       </c>
       <c r="V9">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="W9" t="s">
         <v>39</v>
@@ -1575,6 +1598,9 @@
         <v>1</v>
       </c>
       <c r="AG9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH9" t="s">
         <v>6</v>
       </c>
     </row>

--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776E878F-F11A-4C3C-8C6C-A970CA482164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB52E564-1791-4D46-B6BB-4DBB74F07E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="86">
   <si>
     <t>Usuario</t>
   </si>
@@ -177,9 +177,6 @@
     <t>CALLAO</t>
   </si>
   <si>
-    <t>JUNIN</t>
-  </si>
-  <si>
     <t>CHILE</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>PEDRO</t>
   </si>
   <si>
-    <t>PEPE</t>
-  </si>
-  <si>
     <t>LEO</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
     <t>RUIZ</t>
   </si>
   <si>
-    <t>PAREDES</t>
-  </si>
-  <si>
     <t>MONAGAS</t>
   </si>
   <si>
@@ -217,9 +208,6 @@
   </si>
   <si>
     <t>KOP892</t>
-  </si>
-  <si>
-    <t>KOP893</t>
   </si>
   <si>
     <t>KOP894</t>
@@ -318,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,13 +354,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -648,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +668,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -715,16 +713,16 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q1" t="s">
         <v>5</v>
       </c>
       <c r="R1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T1" t="s">
         <v>24</v>
@@ -733,7 +731,7 @@
         <v>25</v>
       </c>
       <c r="V1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="W1" t="s">
         <v>26</v>
@@ -766,10 +764,10 @@
         <v>38</v>
       </c>
       <c r="AG1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -777,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -789,16 +787,16 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -876,632 +874,632 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="5">
         <v>967</v>
       </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="Q3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="5">
         <v>25698369</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="5">
+        <v>2020</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="5">
+        <v>967</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="5">
+        <v>25698369</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3">
+      <c r="U4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="5">
         <v>2020</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="Z4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AD3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>6</v>
+      <c r="AD4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="5">
+        <v>967</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="5">
+        <v>25698369</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P4">
+      <c r="P6" s="5">
         <v>967</v>
       </c>
-      <c r="Q4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="Q6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S4">
+      <c r="S6" s="5">
         <v>25698369</v>
       </c>
-      <c r="T4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4">
+      <c r="T6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="5">
         <v>2020</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="Z6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>6</v>
+      <c r="AD6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5">
+      <c r="O7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="5">
         <v>967</v>
       </c>
-      <c r="Q5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="Q7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S5">
+      <c r="S7" s="5">
         <v>25698369</v>
       </c>
-      <c r="T5" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="T7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="5">
+        <v>2020</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="V5">
+      <c r="AA7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="5">
+        <v>967</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="5">
+        <v>25698369</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" s="5">
         <v>2020</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="Z8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6">
-        <v>967</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6">
-        <v>25698369</v>
-      </c>
-      <c r="T6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U6" t="s">
-        <v>60</v>
-      </c>
-      <c r="V6">
-        <v>2020</v>
-      </c>
-      <c r="W6" t="s">
-        <v>39</v>
-      </c>
-      <c r="X6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7">
-        <v>967</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7">
-        <v>25698369</v>
-      </c>
-      <c r="T7" t="s">
-        <v>56</v>
-      </c>
-      <c r="U7" t="s">
-        <v>61</v>
-      </c>
-      <c r="V7">
-        <v>2020</v>
-      </c>
-      <c r="W7" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8">
-        <v>967</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8">
-        <v>25698369</v>
-      </c>
-      <c r="T8" t="s">
-        <v>46</v>
-      </c>
-      <c r="U8" t="s">
-        <v>47</v>
-      </c>
-      <c r="V8">
-        <v>2020</v>
-      </c>
-      <c r="W8" t="s">
-        <v>39</v>
-      </c>
-      <c r="X8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH8" t="s">
+      <c r="AD8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1517,16 +1515,16 @@
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -1544,7 +1542,7 @@
         <v>18</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P9">
         <v>967</v>
@@ -1559,7 +1557,7 @@
         <v>25698369</v>
       </c>
       <c r="T9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U9" t="s">
         <v>57</v>
@@ -1577,7 +1575,7 @@
         <v>41</v>
       </c>
       <c r="Z9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AA9" t="s">
         <v>31</v>
@@ -1601,6 +1599,318 @@
         <v>6</v>
       </c>
       <c r="AH9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10">
+        <v>967</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10">
+        <v>25698369</v>
+      </c>
+      <c r="T10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10">
+        <v>2020</v>
+      </c>
+      <c r="W10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11">
+        <v>967</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11">
+        <v>25698369</v>
+      </c>
+      <c r="T11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" t="s">
+        <v>47</v>
+      </c>
+      <c r="V11">
+        <v>2020</v>
+      </c>
+      <c r="W11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12">
+        <v>967</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12">
+        <v>25698369</v>
+      </c>
+      <c r="T12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V12">
+        <v>2020</v>
+      </c>
+      <c r="W12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1608,14 +1918,17 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C2" r:id="rId8" xr:uid="{9382C0EF-D38A-4EE2-B93D-495E1004483D}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{9382C0EF-D38A-4EE2-B93D-495E1004483D}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{433A40A7-91DC-489F-83E8-361329B290F3}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{0790693F-CF10-4F60-9F23-490A41178744}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{5D7CF031-FC68-4343-9406-07538E7BAB70}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{435D7301-CBB5-466B-A334-F577EF067C76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB52E564-1791-4D46-B6BB-4DBB74F07E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC360C9-6274-4C4A-B79A-EA165CD3331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="86">
   <si>
     <t>Usuario</t>
   </si>
@@ -646,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="7" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>6</v>
+        <v>301</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>45</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="8" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>7</v>
+        <v>301</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>45</v>
@@ -1498,419 +1498,835 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
+        <v>301</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="5">
+        <v>967</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="5">
+        <v>25698369</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V9" s="5">
+        <v>2020</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>301</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="5">
+        <v>967</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="5">
+        <v>25698369</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" s="5">
+        <v>2020</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>301</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="5">
+        <v>967</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="5">
+        <v>25698369</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" s="5">
+        <v>2020</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>301</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="5">
+        <v>967</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="5">
+        <v>25698369</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V12" s="5">
+        <v>2020</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J13" t="s">
         <v>21</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K13" t="s">
         <v>22</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L13" t="s">
         <v>12</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M13" t="s">
         <v>17</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N13" t="s">
         <v>18</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O13" t="s">
         <v>50</v>
       </c>
-      <c r="P9">
+      <c r="P13">
         <v>967</v>
       </c>
-      <c r="Q9" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="Q13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" t="s">
         <v>23</v>
       </c>
-      <c r="S9">
+      <c r="S13">
         <v>25698369</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T13" t="s">
         <v>53</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U13" t="s">
         <v>57</v>
       </c>
-      <c r="V9">
+      <c r="V13">
         <v>2020</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W13" t="s">
         <v>39</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X13" t="s">
         <v>40</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y13" t="s">
         <v>41</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z13" t="s">
         <v>61</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA13" t="s">
         <v>31</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB13" t="s">
         <v>33</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC13" t="s">
         <v>35</v>
       </c>
-      <c r="AD9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AD13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J14" t="s">
         <v>21</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K14" t="s">
         <v>22</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L14" t="s">
         <v>12</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M14" t="s">
         <v>17</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N14" t="s">
         <v>18</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O14" t="s">
         <v>43</v>
       </c>
-      <c r="P10">
+      <c r="P14">
         <v>967</v>
       </c>
-      <c r="Q10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="Q14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" t="s">
         <v>23</v>
       </c>
-      <c r="S10">
+      <c r="S14">
         <v>25698369</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T14" t="s">
         <v>54</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U14" t="s">
         <v>58</v>
       </c>
-      <c r="V10">
+      <c r="V14">
         <v>2020</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W14" t="s">
         <v>39</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X14" t="s">
         <v>40</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y14" t="s">
         <v>41</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z14" t="s">
         <v>62</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA14" t="s">
         <v>31</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB14" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC14" t="s">
         <v>35</v>
       </c>
-      <c r="AD10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AD14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J15" t="s">
         <v>21</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K15" t="s">
         <v>22</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L15" t="s">
         <v>12</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M15" t="s">
         <v>17</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N15" t="s">
         <v>18</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O15" t="s">
         <v>48</v>
       </c>
-      <c r="P11">
+      <c r="P15">
         <v>967</v>
       </c>
-      <c r="Q11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="Q15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" t="s">
         <v>23</v>
       </c>
-      <c r="S11">
+      <c r="S15">
         <v>25698369</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T15" t="s">
         <v>46</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U15" t="s">
         <v>47</v>
       </c>
-      <c r="V11">
+      <c r="V15">
         <v>2020</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W15" t="s">
         <v>39</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X15" t="s">
         <v>40</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y15" t="s">
         <v>41</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z15" t="s">
         <v>63</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA15" t="s">
         <v>31</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB15" t="s">
         <v>33</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AC15" t="s">
         <v>35</v>
       </c>
-      <c r="AD11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AD15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J16" t="s">
         <v>21</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L16" t="s">
         <v>12</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M16" t="s">
         <v>17</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N16" t="s">
         <v>18</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O16" t="s">
         <v>49</v>
       </c>
-      <c r="P12">
+      <c r="P16">
         <v>967</v>
       </c>
-      <c r="Q12" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="Q16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" t="s">
         <v>23</v>
       </c>
-      <c r="S12">
+      <c r="S16">
         <v>25698369</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T16" t="s">
         <v>51</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U16" t="s">
         <v>55</v>
       </c>
-      <c r="V12">
+      <c r="V16">
         <v>2020</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W16" t="s">
         <v>39</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X16" t="s">
         <v>40</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y16" t="s">
         <v>41</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z16" t="s">
         <v>64</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA16" t="s">
         <v>31</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB16" t="s">
         <v>33</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AC16" t="s">
         <v>35</v>
       </c>
-      <c r="AD12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE12">
-        <v>1</v>
-      </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AD16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1918,17 +2334,21 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="C2" r:id="rId7" xr:uid="{9382C0EF-D38A-4EE2-B93D-495E1004483D}"/>
     <hyperlink ref="C5" r:id="rId8" xr:uid="{433A40A7-91DC-489F-83E8-361329B290F3}"/>
     <hyperlink ref="C6" r:id="rId9" xr:uid="{0790693F-CF10-4F60-9F23-490A41178744}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{5D7CF031-FC68-4343-9406-07538E7BAB70}"/>
-    <hyperlink ref="C8" r:id="rId11" xr:uid="{435D7301-CBB5-466B-A334-F577EF067C76}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{5D7CF031-FC68-4343-9406-07538E7BAB70}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{435D7301-CBB5-466B-A334-F577EF067C76}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{9F7B37C8-74F9-4DD8-9D48-D13B488289D5}"/>
+    <hyperlink ref="C10" r:id="rId13" xr:uid="{541F826F-E21D-4A12-A9EB-7728315E5210}"/>
+    <hyperlink ref="C7" r:id="rId14" xr:uid="{4CD87077-B036-4925-9A38-A07941A96797}"/>
+    <hyperlink ref="C8" r:id="rId15" xr:uid="{86F97C9E-7382-4A20-9EE5-ACF5D03A33BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC360C9-6274-4C4A-B79A-EA165CD3331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC74AF8-AE07-4CFB-A700-DC64057D117F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="8" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>45</v>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="AH8" s="5" t="s">
         <v>6</v>

--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC74AF8-AE07-4CFB-A700-DC64057D117F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1F6E13-AF34-4706-B25D-6AE6665A54BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="86">
   <si>
     <t>Usuario</t>
   </si>
@@ -276,13 +276,13 @@
     <t>CLEAS</t>
   </si>
   <si>
-    <t>04104019009</t>
-  </si>
-  <si>
-    <t>20/09/2021</t>
-  </si>
-  <si>
     <t>Sí</t>
+  </si>
+  <si>
+    <t>04104019214</t>
+  </si>
+  <si>
+    <t>24/09/2024</t>
   </si>
 </sst>
 </file>
@@ -326,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -349,12 +349,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -362,9 +373,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -646,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH16"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,17 +903,17 @@
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>75</v>
+      <c r="H3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>21</v>
@@ -975,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -994,17 +1007,17 @@
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>75</v>
+      <c r="H4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>21</v>
@@ -1076,10 +1089,10 @@
         <v>1</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1098,17 +1111,17 @@
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>75</v>
+      <c r="H5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>21</v>
@@ -1183,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1202,17 +1215,17 @@
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>75</v>
+      <c r="H6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>21</v>
@@ -1284,15 +1297,15 @@
         <v>1</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>301</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>45</v>
@@ -1306,17 +1319,17 @@
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>75</v>
+      <c r="H7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>21</v>
@@ -1388,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH7" s="5" t="s">
         <v>6</v>
@@ -1396,7 +1409,7 @@
     </row>
     <row r="8" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>303</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>45</v>
@@ -1410,17 +1423,17 @@
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>75</v>
+      <c r="H8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>21</v>
@@ -1500,7 +1513,7 @@
     </row>
     <row r="9" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>301</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>45</v>
@@ -1514,17 +1527,17 @@
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>75</v>
+      <c r="H9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>21</v>
@@ -1596,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH9" s="5" t="s">
         <v>6</v>
@@ -1604,7 +1617,7 @@
     </row>
     <row r="10" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>301</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>45</v>
@@ -1618,17 +1631,17 @@
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>75</v>
+      <c r="H10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>21</v>
@@ -1700,223 +1713,223 @@
         <v>1</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="AH10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>301</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="O11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11">
         <v>967</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="5" t="s">
+      <c r="Q11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11">
         <v>25698369</v>
       </c>
-      <c r="T11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V11" s="5">
+      <c r="T11" t="s">
+        <v>53</v>
+      </c>
+      <c r="U11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11">
         <v>2020</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="W11" t="s">
         <v>39</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="X11" t="s">
         <v>40</v>
       </c>
-      <c r="Y11" s="5" t="s">
+      <c r="Y11" t="s">
         <v>41</v>
       </c>
-      <c r="Z11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA11" s="5" t="s">
+      <c r="Z11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA11" t="s">
         <v>31</v>
       </c>
-      <c r="AB11" s="5" t="s">
+      <c r="AB11" t="s">
         <v>33</v>
       </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AC11" t="s">
         <v>35</v>
       </c>
-      <c r="AD11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH11" s="5" t="s">
+      <c r="AD11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>301</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12">
         <v>967</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="5" t="s">
+      <c r="Q12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12">
         <v>25698369</v>
       </c>
-      <c r="T12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="V12" s="5">
+      <c r="T12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V12">
         <v>2020</v>
       </c>
-      <c r="W12" s="5" t="s">
+      <c r="W12" t="s">
         <v>39</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="X12" t="s">
         <v>40</v>
       </c>
-      <c r="Y12" s="5" t="s">
+      <c r="Y12" t="s">
         <v>41</v>
       </c>
-      <c r="Z12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA12" s="5" t="s">
+      <c r="Z12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA12" t="s">
         <v>31</v>
       </c>
-      <c r="AB12" s="5" t="s">
+      <c r="AB12" t="s">
         <v>33</v>
       </c>
-      <c r="AC12" s="5" t="s">
+      <c r="AC12" t="s">
         <v>35</v>
       </c>
-      <c r="AD12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE12" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH12" s="5" t="s">
+      <c r="AD12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>8</v>
+      <c r="A13" s="11">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -1931,7 +1944,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
@@ -1958,7 +1971,7 @@
         <v>18</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13">
         <v>967</v>
@@ -1973,10 +1986,10 @@
         <v>25698369</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="V13">
         <v>2020</v>
@@ -1991,7 +2004,7 @@
         <v>41</v>
       </c>
       <c r="Z13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA13" t="s">
         <v>31</v>
@@ -2019,8 +2032,8 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>9</v>
+      <c r="A14" s="11">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -2035,7 +2048,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>16</v>
@@ -2062,7 +2075,7 @@
         <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P14">
         <v>967</v>
@@ -2077,10 +2090,10 @@
         <v>25698369</v>
       </c>
       <c r="T14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="V14">
         <v>2020</v>
@@ -2095,7 +2108,7 @@
         <v>41</v>
       </c>
       <c r="Z14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA14" t="s">
         <v>31</v>
@@ -2119,214 +2132,6 @@
         <v>6</v>
       </c>
       <c r="AH14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15">
-        <v>967</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15">
-        <v>25698369</v>
-      </c>
-      <c r="T15" t="s">
-        <v>46</v>
-      </c>
-      <c r="U15" t="s">
-        <v>47</v>
-      </c>
-      <c r="V15">
-        <v>2020</v>
-      </c>
-      <c r="W15" t="s">
-        <v>39</v>
-      </c>
-      <c r="X15" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16">
-        <v>967</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16">
-        <v>25698369</v>
-      </c>
-      <c r="T16" t="s">
-        <v>51</v>
-      </c>
-      <c r="U16" t="s">
-        <v>55</v>
-      </c>
-      <c r="V16">
-        <v>2020</v>
-      </c>
-      <c r="W16" t="s">
-        <v>39</v>
-      </c>
-      <c r="X16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2334,21 +2139,19 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="C2" r:id="rId7" xr:uid="{9382C0EF-D38A-4EE2-B93D-495E1004483D}"/>
     <hyperlink ref="C5" r:id="rId8" xr:uid="{433A40A7-91DC-489F-83E8-361329B290F3}"/>
     <hyperlink ref="C6" r:id="rId9" xr:uid="{0790693F-CF10-4F60-9F23-490A41178744}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{5D7CF031-FC68-4343-9406-07538E7BAB70}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{435D7301-CBB5-466B-A334-F577EF067C76}"/>
-    <hyperlink ref="C9" r:id="rId12" xr:uid="{9F7B37C8-74F9-4DD8-9D48-D13B488289D5}"/>
-    <hyperlink ref="C10" r:id="rId13" xr:uid="{541F826F-E21D-4A12-A9EB-7728315E5210}"/>
-    <hyperlink ref="C7" r:id="rId14" xr:uid="{4CD87077-B036-4925-9A38-A07941A96797}"/>
-    <hyperlink ref="C8" r:id="rId15" xr:uid="{86F97C9E-7382-4A20-9EE5-ACF5D03A33BB}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{9F7B37C8-74F9-4DD8-9D48-D13B488289D5}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{541F826F-E21D-4A12-A9EB-7728315E5210}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{4CD87077-B036-4925-9A38-A07941A96797}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{86F97C9E-7382-4A20-9EE5-ACF5D03A33BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1F6E13-AF34-4706-B25D-6AE6665A54BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8D2E78-79C4-4404-808D-A08888F4491A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="89">
   <si>
     <t>Usuario</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>24/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04104017129 </t>
+  </si>
+  <si>
+    <t>08/07/2021</t>
+  </si>
+  <si>
+    <t>PEPE</t>
   </si>
 </sst>
 </file>
@@ -306,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +331,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -378,6 +393,11 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -659,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH14"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,6 +2155,422 @@
         <v>6</v>
       </c>
     </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="12">
+        <v>967</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="12">
+        <v>25698369</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V15" s="12">
+        <v>2020</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH15" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="12">
+        <v>967</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="12">
+        <v>25698369</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V16" s="12">
+        <v>2020</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH16" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="12">
+        <v>967</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="12">
+        <v>25698369</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" s="12">
+        <v>2020</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH17" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" s="12">
+        <v>967</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="12">
+        <v>25698369</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V18" s="12">
+        <v>2020</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH18" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
@@ -2150,8 +2586,12 @@
     <hyperlink ref="C10" r:id="rId11" xr:uid="{541F826F-E21D-4A12-A9EB-7728315E5210}"/>
     <hyperlink ref="C7" r:id="rId12" xr:uid="{4CD87077-B036-4925-9A38-A07941A96797}"/>
     <hyperlink ref="C8" r:id="rId13" xr:uid="{86F97C9E-7382-4A20-9EE5-ACF5D03A33BB}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{16829435-E94D-4F7C-AAE1-052D21003E38}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{B7837711-41E5-4344-B32E-AFB15C2F9F4F}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{515763D7-2DE8-4ED7-9253-7EB52BFD1DCC}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{0EDF8CA1-F4AA-46D3-9C68-62F08A9F105C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
+++ b/SuraClaims/GeneracionSiniestroMotorTercero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8D2E78-79C4-4404-808D-A08888F4491A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F558C311-099F-4353-92CA-BDD583EE6FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="91">
   <si>
     <t>Usuario</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>PEPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04104017203 </t>
+  </si>
+  <si>
+    <t>14/07/2021</t>
   </si>
 </sst>
 </file>
@@ -682,7 +688,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,13 +2178,13 @@
         <v>14</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>76</v>
@@ -2256,7 +2262,7 @@
         <v>6</v>
       </c>
       <c r="AH15" s="12" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2276,13 +2282,13 @@
         <v>14</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>76</v>
@@ -2360,7 +2366,7 @@
         <v>83</v>
       </c>
       <c r="AH16" s="12" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2380,13 +2386,13 @@
         <v>14</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>76</v>
@@ -2464,7 +2470,7 @@
         <v>6</v>
       </c>
       <c r="AH17" s="12" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
